--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.710200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.710200.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B5F9E6D-963A-42B2-BC63-86BC3FD8C2B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FFB90C-1190-431E-9088-5A22D857C80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T062320.114" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T061624.545" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="93">
   <si>
     <t>Do Ty</t>
   </si>
@@ -263,6 +263,30 @@
   </si>
   <si>
     <t>WATI</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>PO Receiving</t>
+  </si>
+  <si>
+    <t>TOKO BUKU AA JATINANGOR</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PO/Contract Entries</t>
+  </si>
+  <si>
+    <t>RISWANTI</t>
+  </si>
+  <si>
+    <t>PENSIL 2B</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -758,9 +782,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1116,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4948,7 +4973,7 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D35">
         <v>1201</v>
@@ -4957,7 +4982,7 @@
         <v>45324</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
         <v>55</v>
@@ -4984,7 +5009,7 @@
         <v>61</v>
       </c>
       <c r="X35">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y35" s="1">
         <v>45324</v>
@@ -4993,7 +5018,7 @@
         <v>56</v>
       </c>
       <c r="AA35">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="AB35" t="s">
         <v>56</v>
@@ -5008,7 +5033,7 @@
         <v>56</v>
       </c>
       <c r="AG35">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="AH35" t="s">
         <v>56</v>
@@ -5020,7 +5045,7 @@
         <v>45324</v>
       </c>
       <c r="AN35" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO35" t="s">
         <v>63</v>
@@ -5032,7 +5057,7 @@
         <v>64</v>
       </c>
       <c r="AR35">
-        <v>275699</v>
+        <v>296698</v>
       </c>
       <c r="AU35" t="s">
         <v>56</v>
@@ -5058,7 +5083,7 @@
         <v>53</v>
       </c>
       <c r="C36">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D36">
         <v>1201</v>
@@ -5067,7 +5092,7 @@
         <v>45324</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
         <v>55</v>
@@ -5094,7 +5119,7 @@
         <v>61</v>
       </c>
       <c r="X36">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y36" s="1">
         <v>45324</v>
@@ -5103,7 +5128,7 @@
         <v>56</v>
       </c>
       <c r="AA36">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="AB36" t="s">
         <v>56</v>
@@ -5118,7 +5143,7 @@
         <v>56</v>
       </c>
       <c r="AG36">
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="AH36" t="s">
         <v>56</v>
@@ -5130,7 +5155,7 @@
         <v>45324</v>
       </c>
       <c r="AN36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO36" t="s">
         <v>63</v>
@@ -5142,7 +5167,7 @@
         <v>64</v>
       </c>
       <c r="AR36">
-        <v>291149</v>
+        <v>257644</v>
       </c>
       <c r="AU36" t="s">
         <v>56</v>
@@ -5168,7 +5193,7 @@
         <v>53</v>
       </c>
       <c r="C37">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D37">
         <v>1201</v>
@@ -5177,7 +5202,7 @@
         <v>45324</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
         <v>55</v>
@@ -5204,7 +5229,7 @@
         <v>61</v>
       </c>
       <c r="X37">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y37" s="1">
         <v>45324</v>
@@ -5213,7 +5238,7 @@
         <v>56</v>
       </c>
       <c r="AA37">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="AB37" t="s">
         <v>56</v>
@@ -5228,7 +5253,7 @@
         <v>56</v>
       </c>
       <c r="AG37">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="AH37" t="s">
         <v>56</v>
@@ -5240,7 +5265,7 @@
         <v>45324</v>
       </c>
       <c r="AN37" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO37" t="s">
         <v>63</v>
@@ -5252,7 +5277,7 @@
         <v>64</v>
       </c>
       <c r="AR37">
-        <v>291149</v>
+        <v>261474</v>
       </c>
       <c r="AU37" t="s">
         <v>56</v>
@@ -5278,7 +5303,7 @@
         <v>53</v>
       </c>
       <c r="C38">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D38">
         <v>1201</v>
@@ -5287,7 +5312,7 @@
         <v>45324</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
         <v>55</v>
@@ -5314,7 +5339,7 @@
         <v>61</v>
       </c>
       <c r="X38">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y38" s="1">
         <v>45324</v>
@@ -5323,7 +5348,7 @@
         <v>56</v>
       </c>
       <c r="AA38">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="AB38" t="s">
         <v>56</v>
@@ -5338,7 +5363,7 @@
         <v>56</v>
       </c>
       <c r="AG38">
-        <v>26</v>
+        <v>-12</v>
       </c>
       <c r="AH38" t="s">
         <v>56</v>
@@ -5350,7 +5375,7 @@
         <v>45324</v>
       </c>
       <c r="AN38" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO38" t="s">
         <v>63</v>
@@ -5362,7 +5387,7 @@
         <v>64</v>
       </c>
       <c r="AR38">
-        <v>291149</v>
+        <v>253307</v>
       </c>
       <c r="AU38" t="s">
         <v>56</v>
@@ -5388,7 +5413,7 @@
         <v>53</v>
       </c>
       <c r="C39">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D39">
         <v>1201</v>
@@ -5397,7 +5422,7 @@
         <v>45324</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>55</v>
@@ -5424,7 +5449,7 @@
         <v>61</v>
       </c>
       <c r="X39">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y39" s="1">
         <v>45324</v>
@@ -5433,7 +5458,7 @@
         <v>56</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="AB39" t="s">
         <v>56</v>
@@ -5448,7 +5473,7 @@
         <v>56</v>
       </c>
       <c r="AG39">
-        <v>39</v>
+        <v>-12</v>
       </c>
       <c r="AH39" t="s">
         <v>56</v>
@@ -5460,7 +5485,7 @@
         <v>45324</v>
       </c>
       <c r="AN39" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO39" t="s">
         <v>63</v>
@@ -5472,7 +5497,7 @@
         <v>64</v>
       </c>
       <c r="AR39">
-        <v>291149</v>
+        <v>257645</v>
       </c>
       <c r="AU39" t="s">
         <v>56</v>
@@ -5498,7 +5523,7 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>14372712</v>
+        <v>14372711</v>
       </c>
       <c r="D40">
         <v>1201</v>
@@ -5507,7 +5532,7 @@
         <v>45324</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
@@ -5534,7 +5559,7 @@
         <v>61</v>
       </c>
       <c r="X40">
-        <v>2097708</v>
+        <v>2097655</v>
       </c>
       <c r="Y40" s="1">
         <v>45324</v>
@@ -5543,7 +5568,7 @@
         <v>56</v>
       </c>
       <c r="AA40">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="AB40" t="s">
         <v>56</v>
@@ -5558,7 +5583,7 @@
         <v>56</v>
       </c>
       <c r="AG40">
-        <v>82</v>
+        <v>-12</v>
       </c>
       <c r="AH40" t="s">
         <v>56</v>
@@ -5570,7 +5595,7 @@
         <v>45324</v>
       </c>
       <c r="AN40" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO40" t="s">
         <v>63</v>
@@ -5582,7 +5607,7 @@
         <v>64</v>
       </c>
       <c r="AR40">
-        <v>291149</v>
+        <v>262853</v>
       </c>
       <c r="AU40" t="s">
         <v>56</v>
@@ -5608,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>14372713</v>
+        <v>14372711</v>
       </c>
       <c r="D41">
         <v>1201</v>
@@ -5617,7 +5642,7 @@
         <v>45324</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
         <v>55</v>
@@ -5644,7 +5669,7 @@
         <v>61</v>
       </c>
       <c r="X41">
-        <v>2097721</v>
+        <v>2097655</v>
       </c>
       <c r="Y41" s="1">
         <v>45324</v>
@@ -5653,7 +5678,7 @@
         <v>56</v>
       </c>
       <c r="AA41">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="s">
         <v>56</v>
@@ -5668,7 +5693,7 @@
         <v>56</v>
       </c>
       <c r="AG41">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="AH41" t="s">
         <v>56</v>
@@ -5680,7 +5705,7 @@
         <v>45324</v>
       </c>
       <c r="AN41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO41" t="s">
         <v>63</v>
@@ -5692,7 +5717,7 @@
         <v>64</v>
       </c>
       <c r="AR41">
-        <v>296040</v>
+        <v>286602</v>
       </c>
       <c r="AU41" t="s">
         <v>56</v>
@@ -5718,7 +5743,7 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>14372713</v>
+        <v>14372711</v>
       </c>
       <c r="D42">
         <v>1201</v>
@@ -5727,7 +5752,7 @@
         <v>45324</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
         <v>55</v>
@@ -5754,7 +5779,7 @@
         <v>61</v>
       </c>
       <c r="X42">
-        <v>2097721</v>
+        <v>2097655</v>
       </c>
       <c r="Y42" s="1">
         <v>45324</v>
@@ -5763,7 +5788,7 @@
         <v>56</v>
       </c>
       <c r="AA42">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s">
         <v>56</v>
@@ -5778,7 +5803,7 @@
         <v>56</v>
       </c>
       <c r="AG42">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="AH42" t="s">
         <v>56</v>
@@ -5790,7 +5815,7 @@
         <v>45324</v>
       </c>
       <c r="AN42" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO42" t="s">
         <v>63</v>
@@ -5802,7 +5827,7 @@
         <v>64</v>
       </c>
       <c r="AR42">
-        <v>296033</v>
+        <v>296695</v>
       </c>
       <c r="AU42" t="s">
         <v>56</v>
@@ -5828,7 +5853,7 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>14372713</v>
+        <v>14372711</v>
       </c>
       <c r="D43">
         <v>1201</v>
@@ -5837,7 +5862,7 @@
         <v>45324</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
         <v>55</v>
@@ -5864,7 +5889,7 @@
         <v>61</v>
       </c>
       <c r="X43">
-        <v>2097721</v>
+        <v>2097655</v>
       </c>
       <c r="Y43" s="1">
         <v>45324</v>
@@ -5873,7 +5898,7 @@
         <v>56</v>
       </c>
       <c r="AA43">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s">
         <v>56</v>
@@ -5888,7 +5913,7 @@
         <v>56</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="AH43" t="s">
         <v>56</v>
@@ -5900,7 +5925,7 @@
         <v>45324</v>
       </c>
       <c r="AN43" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO43" t="s">
         <v>63</v>
@@ -5912,7 +5937,7 @@
         <v>64</v>
       </c>
       <c r="AR43">
-        <v>293867</v>
+        <v>256241</v>
       </c>
       <c r="AU43" t="s">
         <v>56</v>
@@ -5938,7 +5963,7 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>14372713</v>
+        <v>14372711</v>
       </c>
       <c r="D44">
         <v>1201</v>
@@ -5947,7 +5972,7 @@
         <v>45324</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
         <v>55</v>
@@ -5974,7 +5999,7 @@
         <v>61</v>
       </c>
       <c r="X44">
-        <v>2097721</v>
+        <v>2097655</v>
       </c>
       <c r="Y44" s="1">
         <v>45324</v>
@@ -5983,7 +6008,7 @@
         <v>56</v>
       </c>
       <c r="AA44">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s">
         <v>56</v>
@@ -5998,7 +6023,7 @@
         <v>56</v>
       </c>
       <c r="AG44">
-        <v>1</v>
+        <v>-24</v>
       </c>
       <c r="AH44" t="s">
         <v>56</v>
@@ -6010,7 +6035,7 @@
         <v>45324</v>
       </c>
       <c r="AN44" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO44" t="s">
         <v>63</v>
@@ -6022,7 +6047,7 @@
         <v>64</v>
       </c>
       <c r="AR44">
-        <v>296039</v>
+        <v>296696</v>
       </c>
       <c r="AU44" t="s">
         <v>56</v>
@@ -6048,7 +6073,7 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>14372714</v>
+        <v>14372711</v>
       </c>
       <c r="D45">
         <v>1201</v>
@@ -6057,7 +6082,7 @@
         <v>45324</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
         <v>55</v>
@@ -6084,7 +6109,7 @@
         <v>61</v>
       </c>
       <c r="X45">
-        <v>2097723</v>
+        <v>2097655</v>
       </c>
       <c r="Y45" s="1">
         <v>45324</v>
@@ -6093,7 +6118,7 @@
         <v>56</v>
       </c>
       <c r="AA45">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s">
         <v>56</v>
@@ -6108,7 +6133,7 @@
         <v>56</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>-116</v>
       </c>
       <c r="AH45" t="s">
         <v>56</v>
@@ -6120,7 +6145,7 @@
         <v>45324</v>
       </c>
       <c r="AN45" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO45" t="s">
         <v>63</v>
@@ -6132,7 +6157,7 @@
         <v>64</v>
       </c>
       <c r="AR45">
-        <v>296596</v>
+        <v>257638</v>
       </c>
       <c r="AU45" t="s">
         <v>56</v>
@@ -6158,7 +6183,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>14372714</v>
+        <v>14372711</v>
       </c>
       <c r="D46">
         <v>1201</v>
@@ -6167,7 +6192,7 @@
         <v>45324</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s">
         <v>55</v>
@@ -6194,7 +6219,7 @@
         <v>61</v>
       </c>
       <c r="X46">
-        <v>2097723</v>
+        <v>2097655</v>
       </c>
       <c r="Y46" s="1">
         <v>45324</v>
@@ -6203,7 +6228,7 @@
         <v>56</v>
       </c>
       <c r="AA46">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s">
         <v>56</v>
@@ -6218,7 +6243,7 @@
         <v>56</v>
       </c>
       <c r="AG46">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH46" t="s">
         <v>56</v>
@@ -6230,7 +6255,7 @@
         <v>45324</v>
       </c>
       <c r="AN46" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AO46" t="s">
         <v>63</v>
@@ -6242,7 +6267,7 @@
         <v>64</v>
       </c>
       <c r="AR46">
-        <v>287577</v>
+        <v>257646</v>
       </c>
       <c r="AU46" t="s">
         <v>56</v>
@@ -6268,22 +6293,16 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>14372730</v>
+        <v>14372711</v>
       </c>
       <c r="D47">
         <v>1201</v>
       </c>
       <c r="E47" s="1">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47">
-        <v>5.18</v>
-      </c>
-      <c r="H47">
-        <v>5.18</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
         <v>55</v>
@@ -6310,16 +6329,16 @@
         <v>61</v>
       </c>
       <c r="X47">
-        <v>2100744</v>
+        <v>2097655</v>
       </c>
       <c r="Y47" s="1">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="Z47" t="s">
         <v>56</v>
       </c>
       <c r="AA47">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s">
         <v>56</v>
@@ -6334,7 +6353,7 @@
         <v>56</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH47" t="s">
         <v>56</v>
@@ -6343,10 +6362,10 @@
         <v>56</v>
       </c>
       <c r="AM47" s="1">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="AN47" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AO47" t="s">
         <v>63</v>
@@ -6358,7 +6377,7 @@
         <v>64</v>
       </c>
       <c r="AR47">
-        <v>292047</v>
+        <v>296697</v>
       </c>
       <c r="AU47" t="s">
         <v>56</v>
@@ -6384,16 +6403,16 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>14372711</v>
+        <v>14372712</v>
       </c>
       <c r="D48">
         <v>1201</v>
       </c>
       <c r="E48" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
         <v>55</v>
@@ -6420,7 +6439,7 @@
         <v>61</v>
       </c>
       <c r="X48">
-        <v>2097655</v>
+        <v>2097708</v>
       </c>
       <c r="Y48" s="1">
         <v>45324</v>
@@ -6444,7 +6463,7 @@
         <v>56</v>
       </c>
       <c r="AG48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AH48" t="s">
         <v>56</v>
@@ -6453,7 +6472,7 @@
         <v>56</v>
       </c>
       <c r="AM48" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="AN48" t="s">
         <v>75</v>
@@ -6468,7 +6487,7 @@
         <v>64</v>
       </c>
       <c r="AR48">
-        <v>262471</v>
+        <v>275699</v>
       </c>
       <c r="AU48" t="s">
         <v>56</v>
@@ -6494,16 +6513,16 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>14372711</v>
+        <v>14372712</v>
       </c>
       <c r="D49">
         <v>1201</v>
       </c>
       <c r="E49" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
@@ -6530,7 +6549,7 @@
         <v>61</v>
       </c>
       <c r="X49">
-        <v>2097655</v>
+        <v>2097708</v>
       </c>
       <c r="Y49" s="1">
         <v>45324</v>
@@ -6554,7 +6573,7 @@
         <v>56</v>
       </c>
       <c r="AG49">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AH49" t="s">
         <v>56</v>
@@ -6563,7 +6582,7 @@
         <v>56</v>
       </c>
       <c r="AM49" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="AN49" t="s">
         <v>75</v>
@@ -6578,7 +6597,7 @@
         <v>64</v>
       </c>
       <c r="AR49">
-        <v>266620</v>
+        <v>291149</v>
       </c>
       <c r="AU49" t="s">
         <v>56</v>
@@ -6604,16 +6623,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>14372711</v>
+        <v>14372712</v>
       </c>
       <c r="D50">
         <v>1201</v>
       </c>
       <c r="E50" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
         <v>55</v>
@@ -6640,7 +6659,7 @@
         <v>61</v>
       </c>
       <c r="X50">
-        <v>2097655</v>
+        <v>2097708</v>
       </c>
       <c r="Y50" s="1">
         <v>45324</v>
@@ -6664,7 +6683,7 @@
         <v>56</v>
       </c>
       <c r="AG50">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="AH50" t="s">
         <v>56</v>
@@ -6673,7 +6692,7 @@
         <v>56</v>
       </c>
       <c r="AM50" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="AN50" t="s">
         <v>75</v>
@@ -6688,7 +6707,7 @@
         <v>64</v>
       </c>
       <c r="AR50">
-        <v>257641</v>
+        <v>291149</v>
       </c>
       <c r="AU50" t="s">
         <v>56</v>
@@ -6714,16 +6733,16 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>14372711</v>
+        <v>14372712</v>
       </c>
       <c r="D51">
         <v>1201</v>
       </c>
       <c r="E51" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
         <v>55</v>
@@ -6750,7 +6769,7 @@
         <v>61</v>
       </c>
       <c r="X51">
-        <v>2097655</v>
+        <v>2097708</v>
       </c>
       <c r="Y51" s="1">
         <v>45324</v>
@@ -6774,7 +6793,7 @@
         <v>56</v>
       </c>
       <c r="AG51">
-        <v>-24</v>
+        <v>26</v>
       </c>
       <c r="AH51" t="s">
         <v>56</v>
@@ -6783,7 +6802,7 @@
         <v>56</v>
       </c>
       <c r="AM51" s="1">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="AN51" t="s">
         <v>75</v>
@@ -6798,7 +6817,7 @@
         <v>64</v>
       </c>
       <c r="AR51">
-        <v>296696</v>
+        <v>291149</v>
       </c>
       <c r="AU51" t="s">
         <v>56</v>
@@ -6817,50 +6836,1638 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>14372712</v>
+      </c>
+      <c r="D52">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45324</v>
+      </c>
       <c r="F52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52">
-        <v>386.13</v>
-      </c>
-      <c r="H52">
-        <v>386.13</v>
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+      <c r="X52">
+        <v>2097708</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>10</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
       </c>
       <c r="AG52">
-        <v>618</v>
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP52">
+        <v>1201</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR52">
+        <v>291149</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY52">
+        <v>710200</v>
+      </c>
+      <c r="AZ52">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>14372712</v>
+      </c>
+      <c r="D53">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45324</v>
+      </c>
       <c r="F53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2097708</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>12</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
         <v>82</v>
       </c>
-      <c r="G53">
-        <v>386.13</v>
-      </c>
-      <c r="H53">
-        <v>386.13</v>
-      </c>
-      <c r="AG53">
-        <v>618</v>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP53">
+        <v>1201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR53">
+        <v>291149</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY53">
+        <v>710200</v>
+      </c>
+      <c r="AZ53">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>14372713</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45324</v>
+      </c>
       <c r="F54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54">
-        <v>386.13</v>
-      </c>
-      <c r="H54">
-        <v>386.13</v>
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2097721</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
       </c>
       <c r="AG54">
-        <v>618</v>
+        <v>1</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP54">
+        <v>1201</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR54">
+        <v>296040</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY54">
+        <v>710200</v>
+      </c>
+      <c r="AZ54">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>14372713</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45324</v>
+      </c>
       <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2097721</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55">
+        <v>8</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP55">
+        <v>1201</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR55">
+        <v>296033</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY55">
+        <v>710200</v>
+      </c>
+      <c r="AZ55">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>14372713</v>
+      </c>
+      <c r="D56">
+        <v>1201</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45324</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2097721</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP56">
+        <v>1201</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR56">
+        <v>293867</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY56">
+        <v>710200</v>
+      </c>
+      <c r="AZ56">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>14372713</v>
+      </c>
+      <c r="D57">
+        <v>1201</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45324</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X57">
+        <v>2097721</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57">
+        <v>4</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP57">
+        <v>1201</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR57">
+        <v>296039</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY57">
+        <v>710200</v>
+      </c>
+      <c r="AZ57">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>14372714</v>
+      </c>
+      <c r="D58">
+        <v>1201</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45324</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X58">
+        <v>2097723</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP58">
+        <v>1201</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR58">
+        <v>296596</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY58">
+        <v>710200</v>
+      </c>
+      <c r="AZ58">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>14372714</v>
+      </c>
+      <c r="D59">
+        <v>1201</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45324</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>2097723</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA59">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45324</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP59">
+        <v>1201</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR59">
+        <v>287577</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY59">
+        <v>710200</v>
+      </c>
+      <c r="AZ59">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>14372730</v>
+      </c>
+      <c r="D60">
+        <v>1201</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45331</v>
+      </c>
+      <c r="F60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60">
+        <v>5.18</v>
+      </c>
+      <c r="H60">
+        <v>5.18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60">
+        <v>2100744</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>45331</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60">
+        <v>2</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>45331</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP60">
+        <v>1201</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR60">
+        <v>292047</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY60">
+        <v>710200</v>
+      </c>
+      <c r="AZ60">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>14372711</v>
+      </c>
+      <c r="D61">
+        <v>1201</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+      <c r="X61">
+        <v>2097655</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61">
+        <v>-1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP61">
+        <v>1201</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR61">
+        <v>262471</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY61">
+        <v>710200</v>
+      </c>
+      <c r="AZ61">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>14372711</v>
+      </c>
+      <c r="D62">
+        <v>1201</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+      <c r="X62">
+        <v>2097655</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62">
+        <v>4</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62">
+        <v>-1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP62">
+        <v>1201</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR62">
+        <v>266620</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY62">
+        <v>710200</v>
+      </c>
+      <c r="AZ62">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>14372711</v>
+      </c>
+      <c r="D63">
+        <v>1201</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>2097655</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63">
+        <v>6</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63">
+        <v>-2</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP63">
+        <v>1201</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR63">
+        <v>257641</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY63">
+        <v>710200</v>
+      </c>
+      <c r="AZ63">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>14372711</v>
+      </c>
+      <c r="D64">
+        <v>1201</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" t="s">
+        <v>61</v>
+      </c>
+      <c r="X64">
+        <v>2097655</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>45324</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64">
+        <v>8</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG64">
+        <v>-24</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP64">
+        <v>1201</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR64">
+        <v>296696</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY64">
+        <v>710200</v>
+      </c>
+      <c r="AZ64">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>24001709</v>
+      </c>
+      <c r="D65">
+        <v>1201</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="H65">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I65" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N65" s="2">
+        <v>80000</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="s">
         <v>84</v>
+      </c>
+      <c r="S65">
+        <v>15803</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" t="s">
+        <v>85</v>
+      </c>
+      <c r="W65" t="s">
+        <v>86</v>
+      </c>
+      <c r="X65">
+        <v>2104370</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG65">
+        <v>24</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI65">
+        <v>57414183</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP65">
+        <v>1201</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX65">
+        <v>24001199</v>
+      </c>
+      <c r="AY65">
+        <v>710200</v>
+      </c>
+      <c r="AZ65">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66">
+        <v>391.19</v>
+      </c>
+      <c r="H66">
+        <v>391.19</v>
+      </c>
+      <c r="L66" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N66" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG66">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67">
+        <v>391.19</v>
+      </c>
+      <c r="H67">
+        <v>391.19</v>
+      </c>
+      <c r="L67" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N67" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG67">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68">
+        <v>391.19</v>
+      </c>
+      <c r="H68">
+        <v>391.19</v>
+      </c>
+      <c r="L68" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N68" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG68">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.710200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.710200.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FFB90C-1190-431E-9088-5A22D857C80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5AE347-88AB-40D2-8C25-1BAEA3A92FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T061624.545" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T061717.227" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="101">
   <si>
     <t>Do Ty</t>
   </si>
@@ -287,6 +287,30 @@
   </si>
   <si>
     <t>PENSIL 2B</t>
+  </si>
+  <si>
+    <t>ATZ_WINTA</t>
+  </si>
+  <si>
+    <t>EIG_LILIS</t>
+  </si>
+  <si>
+    <t>ERIGO_VIOLA</t>
+  </si>
+  <si>
+    <t>ADS_MEILYSA</t>
+  </si>
+  <si>
+    <t>SMO_LILIS</t>
+  </si>
+  <si>
+    <t>HEX_WINTA</t>
+  </si>
+  <si>
+    <t>MFL_BAYU</t>
+  </si>
+  <si>
+    <t>MEC_LINDA MD</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1141,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ69"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6448,7 +6472,7 @@
         <v>56</v>
       </c>
       <c r="AA48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB48" t="s">
         <v>56</v>
@@ -6463,7 +6487,7 @@
         <v>56</v>
       </c>
       <c r="AG48">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s">
         <v>56</v>
@@ -6487,7 +6511,7 @@
         <v>64</v>
       </c>
       <c r="AR48">
-        <v>275699</v>
+        <v>291149</v>
       </c>
       <c r="AU48" t="s">
         <v>56</v>
@@ -6558,7 +6582,7 @@
         <v>56</v>
       </c>
       <c r="AA49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB49" t="s">
         <v>56</v>
@@ -6573,7 +6597,7 @@
         <v>56</v>
       </c>
       <c r="AG49">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AH49" t="s">
         <v>56</v>
@@ -6597,7 +6621,7 @@
         <v>64</v>
       </c>
       <c r="AR49">
-        <v>291149</v>
+        <v>275699</v>
       </c>
       <c r="AU49" t="s">
         <v>56</v>
@@ -6668,7 +6692,7 @@
         <v>56</v>
       </c>
       <c r="AA50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB50" t="s">
         <v>56</v>
@@ -6683,7 +6707,7 @@
         <v>56</v>
       </c>
       <c r="AG50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH50" t="s">
         <v>56</v>
@@ -6778,7 +6802,7 @@
         <v>56</v>
       </c>
       <c r="AA51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB51" t="s">
         <v>56</v>
@@ -6793,7 +6817,7 @@
         <v>56</v>
       </c>
       <c r="AG51">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AH51" t="s">
         <v>56</v>
@@ -6888,7 +6912,7 @@
         <v>56</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="s">
         <v>56</v>
@@ -6903,7 +6927,7 @@
         <v>56</v>
       </c>
       <c r="AG52">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AH52" t="s">
         <v>56</v>
@@ -7108,7 +7132,7 @@
         <v>56</v>
       </c>
       <c r="AA54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB54" t="s">
         <v>56</v>
@@ -7147,7 +7171,7 @@
         <v>64</v>
       </c>
       <c r="AR54">
-        <v>296040</v>
+        <v>293867</v>
       </c>
       <c r="AU54" t="s">
         <v>56</v>
@@ -7218,7 +7242,7 @@
         <v>56</v>
       </c>
       <c r="AA55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB55" t="s">
         <v>56</v>
@@ -7233,7 +7257,7 @@
         <v>56</v>
       </c>
       <c r="AG55">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH55" t="s">
         <v>56</v>
@@ -7257,7 +7281,7 @@
         <v>64</v>
       </c>
       <c r="AR55">
-        <v>296033</v>
+        <v>296040</v>
       </c>
       <c r="AU55" t="s">
         <v>56</v>
@@ -7328,7 +7352,7 @@
         <v>56</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB56" t="s">
         <v>56</v>
@@ -7343,7 +7367,7 @@
         <v>56</v>
       </c>
       <c r="AG56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH56" t="s">
         <v>56</v>
@@ -7367,7 +7391,7 @@
         <v>64</v>
       </c>
       <c r="AR56">
-        <v>293867</v>
+        <v>296033</v>
       </c>
       <c r="AU56" t="s">
         <v>56</v>
@@ -7548,22 +7572,22 @@
         <v>56</v>
       </c>
       <c r="AA58">
+        <v>4</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
         <v>2</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG58">
-        <v>1</v>
       </c>
       <c r="AH58" t="s">
         <v>56</v>
@@ -7587,7 +7611,7 @@
         <v>64</v>
       </c>
       <c r="AR58">
-        <v>296596</v>
+        <v>287577</v>
       </c>
       <c r="AU58" t="s">
         <v>56</v>
@@ -7658,7 +7682,7 @@
         <v>56</v>
       </c>
       <c r="AA59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB59" t="s">
         <v>56</v>
@@ -7673,7 +7697,7 @@
         <v>56</v>
       </c>
       <c r="AG59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH59" t="s">
         <v>56</v>
@@ -7697,7 +7721,7 @@
         <v>64</v>
       </c>
       <c r="AR59">
-        <v>287577</v>
+        <v>296596</v>
       </c>
       <c r="AU59" t="s">
         <v>56</v>
@@ -7884,7 +7908,7 @@
         <v>56</v>
       </c>
       <c r="AA61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB61" t="s">
         <v>56</v>
@@ -7899,7 +7923,7 @@
         <v>56</v>
       </c>
       <c r="AG61">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="AH61" t="s">
         <v>56</v>
@@ -7923,7 +7947,7 @@
         <v>64</v>
       </c>
       <c r="AR61">
-        <v>262471</v>
+        <v>296696</v>
       </c>
       <c r="AU61" t="s">
         <v>56</v>
@@ -8104,7 +8128,7 @@
         <v>56</v>
       </c>
       <c r="AA63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB63" t="s">
         <v>56</v>
@@ -8119,7 +8143,7 @@
         <v>56</v>
       </c>
       <c r="AG63">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH63" t="s">
         <v>56</v>
@@ -8143,7 +8167,7 @@
         <v>64</v>
       </c>
       <c r="AR63">
-        <v>257641</v>
+        <v>262471</v>
       </c>
       <c r="AU63" t="s">
         <v>56</v>
@@ -8214,7 +8238,7 @@
         <v>56</v>
       </c>
       <c r="AA64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB64" t="s">
         <v>56</v>
@@ -8229,7 +8253,7 @@
         <v>56</v>
       </c>
       <c r="AG64">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="AH64" t="s">
         <v>56</v>
@@ -8253,7 +8277,7 @@
         <v>64</v>
       </c>
       <c r="AR64">
-        <v>296696</v>
+        <v>257641</v>
       </c>
       <c r="AU64" t="s">
         <v>56</v>
@@ -8406,68 +8430,1192 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>14372757</v>
+      </c>
+      <c r="D66">
+        <v>1201</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45349</v>
+      </c>
       <c r="F66" t="s">
         <v>89</v>
       </c>
       <c r="G66">
-        <v>391.19</v>
+        <v>1.65</v>
       </c>
       <c r="H66">
-        <v>391.19</v>
-      </c>
-      <c r="L66" s="2">
-        <v>80000</v>
-      </c>
-      <c r="N66" s="2">
-        <v>80000</v>
+        <v>1.65</v>
+      </c>
+      <c r="I66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" t="s">
+        <v>57</v>
+      </c>
+      <c r="T66" t="s">
+        <v>58</v>
+      </c>
+      <c r="U66" t="s">
+        <v>59</v>
+      </c>
+      <c r="V66" t="s">
+        <v>60</v>
+      </c>
+      <c r="W66" t="s">
+        <v>61</v>
+      </c>
+      <c r="X66">
+        <v>2106552</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA66">
+        <v>2</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>56</v>
       </c>
       <c r="AG66">
-        <v>402</v>
+        <v>60</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP66">
+        <v>1201</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR66">
+        <v>265957</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY66">
+        <v>710200</v>
+      </c>
+      <c r="AZ66">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>14372758</v>
+      </c>
+      <c r="D67">
+        <v>1201</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45349</v>
+      </c>
       <c r="F67" t="s">
         <v>90</v>
       </c>
       <c r="G67">
-        <v>391.19</v>
+        <v>0.06</v>
       </c>
       <c r="H67">
-        <v>391.19</v>
-      </c>
-      <c r="L67" s="2">
-        <v>80000</v>
-      </c>
-      <c r="N67" s="2">
-        <v>80000</v>
+        <v>0.06</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R67" t="s">
+        <v>57</v>
+      </c>
+      <c r="T67" t="s">
+        <v>58</v>
+      </c>
+      <c r="U67" t="s">
+        <v>59</v>
+      </c>
+      <c r="V67" t="s">
+        <v>60</v>
+      </c>
+      <c r="W67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67">
+        <v>2106552</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA67">
+        <v>2</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>56</v>
       </c>
       <c r="AG67">
-        <v>402</v>
+        <v>4</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP67">
+        <v>1201</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR67">
+        <v>273933</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY67">
+        <v>710200</v>
+      </c>
+      <c r="AZ67">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>14372755</v>
+      </c>
+      <c r="D68">
+        <v>1201</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45351</v>
+      </c>
       <c r="F68" t="s">
         <v>91</v>
       </c>
       <c r="G68">
-        <v>391.19</v>
+        <v>13.2</v>
       </c>
       <c r="H68">
-        <v>391.19</v>
-      </c>
-      <c r="L68" s="2">
-        <v>80000</v>
-      </c>
-      <c r="N68" s="2">
-        <v>80000</v>
+        <v>13.2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" t="s">
+        <v>57</v>
+      </c>
+      <c r="T68" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" t="s">
+        <v>59</v>
+      </c>
+      <c r="V68" t="s">
+        <v>60</v>
+      </c>
+      <c r="W68" t="s">
+        <v>61</v>
+      </c>
+      <c r="X68">
+        <v>2106249</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA68">
+        <v>2</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>56</v>
       </c>
       <c r="AG68">
-        <v>402</v>
+        <v>1.5</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP68">
+        <v>1201</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR68">
+        <v>255888</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY68">
+        <v>710200</v>
+      </c>
+      <c r="AZ68">
+        <v>1201.7102</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>14372755</v>
+      </c>
+      <c r="D69">
+        <v>1201</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45351</v>
+      </c>
       <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69">
+        <v>13.88</v>
+      </c>
+      <c r="H69">
+        <v>13.88</v>
+      </c>
+      <c r="I69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" t="s">
+        <v>57</v>
+      </c>
+      <c r="T69" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" t="s">
+        <v>59</v>
+      </c>
+      <c r="V69" t="s">
+        <v>60</v>
+      </c>
+      <c r="W69" t="s">
+        <v>61</v>
+      </c>
+      <c r="X69">
+        <v>2106249</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA69">
+        <v>4</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG69">
+        <v>1.5</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP69">
+        <v>1201</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR69">
+        <v>255889</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY69">
+        <v>710200</v>
+      </c>
+      <c r="AZ69">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>14372759</v>
+      </c>
+      <c r="D70">
+        <v>1201</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F70" t="s">
         <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" t="s">
+        <v>58</v>
+      </c>
+      <c r="U70" t="s">
+        <v>59</v>
+      </c>
+      <c r="V70" t="s">
+        <v>60</v>
+      </c>
+      <c r="W70" t="s">
+        <v>61</v>
+      </c>
+      <c r="X70">
+        <v>2106644</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG70">
+        <v>13</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP70">
+        <v>1201</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR70">
+        <v>296723</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY70">
+        <v>710200</v>
+      </c>
+      <c r="AZ70">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>14372760</v>
+      </c>
+      <c r="D71">
+        <v>1201</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" t="s">
+        <v>57</v>
+      </c>
+      <c r="T71" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" t="s">
+        <v>59</v>
+      </c>
+      <c r="V71" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" t="s">
+        <v>61</v>
+      </c>
+      <c r="X71">
+        <v>2106647</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA71">
+        <v>4</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG71" s="2">
+        <v>1600</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP71">
+        <v>1201</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR71">
+        <v>288017</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY71">
+        <v>710200</v>
+      </c>
+      <c r="AZ71">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>14372760</v>
+      </c>
+      <c r="D72">
+        <v>1201</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F72" t="s">
+        <v>93</v>
+      </c>
+      <c r="I72" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T72" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" t="s">
+        <v>59</v>
+      </c>
+      <c r="V72" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" t="s">
+        <v>61</v>
+      </c>
+      <c r="X72">
+        <v>2106647</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA72">
+        <v>2</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>8500</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP72">
+        <v>1201</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR72">
+        <v>291951</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY72">
+        <v>710200</v>
+      </c>
+      <c r="AZ72">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>14372761</v>
+      </c>
+      <c r="D73">
+        <v>1201</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73" t="s">
+        <v>55</v>
+      </c>
+      <c r="O73" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" t="s">
+        <v>57</v>
+      </c>
+      <c r="T73" t="s">
+        <v>58</v>
+      </c>
+      <c r="U73" t="s">
+        <v>59</v>
+      </c>
+      <c r="V73" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" t="s">
+        <v>61</v>
+      </c>
+      <c r="X73">
+        <v>2106647</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA73">
+        <v>2</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>1554.48</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP73">
+        <v>1201</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR73">
+        <v>284262</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY73">
+        <v>710200</v>
+      </c>
+      <c r="AZ73">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>14372762</v>
+      </c>
+      <c r="D74">
+        <v>1201</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F74" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>56</v>
+      </c>
+      <c r="R74" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" t="s">
+        <v>59</v>
+      </c>
+      <c r="V74" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" t="s">
+        <v>61</v>
+      </c>
+      <c r="X74">
+        <v>2106647</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA74">
+        <v>2</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG74">
+        <v>175</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP74">
+        <v>1201</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR74">
+        <v>296820</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY74">
+        <v>710200</v>
+      </c>
+      <c r="AZ74">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75">
+        <v>14372763</v>
+      </c>
+      <c r="D75">
+        <v>1201</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>56</v>
+      </c>
+      <c r="R75" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75" t="s">
+        <v>59</v>
+      </c>
+      <c r="V75" t="s">
+        <v>60</v>
+      </c>
+      <c r="W75" t="s">
+        <v>61</v>
+      </c>
+      <c r="X75">
+        <v>2107137</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA75">
+        <v>2</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP75">
+        <v>1201</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR75">
+        <v>296441</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY75">
+        <v>710200</v>
+      </c>
+      <c r="AZ75">
+        <v>1201.7102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76">
+        <v>419.98</v>
+      </c>
+      <c r="H76">
+        <v>419.98</v>
+      </c>
+      <c r="L76" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N76" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG76" s="2">
+        <v>12312.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77">
+        <v>419.98</v>
+      </c>
+      <c r="H77">
+        <v>419.98</v>
+      </c>
+      <c r="L77" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N77" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG77" s="2">
+        <v>12312.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78">
+        <v>419.98</v>
+      </c>
+      <c r="H78">
+        <v>419.98</v>
+      </c>
+      <c r="L78" s="2">
+        <v>80000</v>
+      </c>
+      <c r="N78" s="2">
+        <v>80000</v>
+      </c>
+      <c r="AG78" s="2">
+        <v>12312.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
